--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.5809</v>
+        <v>-11.7843</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.561699999999999</v>
+        <v>5.600199999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.917699999999999</v>
+        <v>-8.08279999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.77720000000001</v>
+        <v>-21.80870000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.219499999999996</v>
+        <v>-8.287299999999995</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.394999999999999</v>
+        <v>5.397899999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.6898</v>
+        <v>-8.334400000000002</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.886000000000004</v>
+        <v>5.792100000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.80399999999999</v>
+        <v>-13.94369999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.620000000000005</v>
+        <v>-8.708100000000004</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.24830000000001</v>
+        <v>-22.24550000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.36239999999999</v>
+        <v>-20.06269999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.010999999999996</v>
+        <v>-7.048599999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.673399999999998</v>
+        <v>-7.423500000000001</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.056400000000002</v>
+        <v>4.097700000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.79399999999998</v>
+        <v>-21.73139999999998</v>
       </c>
       <c r="B27" t="n">
-        <v>5.301400000000002</v>
+        <v>4.965300000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.892799999999998</v>
+        <v>4.836499999999997</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.71209999999999</v>
+        <v>-11.6066</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.8125</v>
+        <v>-19.9122</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.2411</v>
+        <v>-12.181</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.832000000000004</v>
+        <v>9.775500000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.670100000000001</v>
+        <v>5.030600000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.425</v>
+        <v>-12.6972</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.354800000000006</v>
+        <v>-7.316700000000005</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.61209999999999</v>
+        <v>-13.5639</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.19499999999999</v>
+        <v>-13.26579999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,10 +1233,10 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.8627</v>
+        <v>-11.516</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.189099999999995</v>
+        <v>-7.163399999999997</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.117699999999997</v>
+        <v>-7.096399999999996</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.222100000000005</v>
+        <v>6.387500000000005</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.75159999999999</v>
+        <v>-11.6178</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.976699999999998</v>
+        <v>5.1572</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.509199999999996</v>
+        <v>-7.511299999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.860399999999998</v>
+        <v>5.186899999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.764999999999997</v>
+        <v>-7.854799999999998</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.8499</v>
+        <v>-14.29799999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.7791</v>
+        <v>-11.7257</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6391</v>
+        <v>-21.68599999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.325899999999997</v>
+        <v>5.280999999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.219500000000006</v>
+        <v>6.298800000000004</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.4701</v>
+        <v>-11.6401</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.80989999999998</v>
+        <v>-19.85429999999997</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.07409999999998</v>
+        <v>-20.13339999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.4627</v>
+        <v>5.300200000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.78000000000001</v>
+        <v>-21.9387</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0117</v>
+        <v>-21.88609999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>6.581000000000004</v>
+        <v>7.119100000000003</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-9.062099999999999</v>
+        <v>-8.979999999999997</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.00589999999999</v>
+        <v>-11.87529999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.74209999999997</v>
+        <v>-20.62319999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.04239999999999</v>
+        <v>-12.4865</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.1632</v>
+        <v>-8.195099999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.070799999999993</v>
+        <v>-8.072699999999994</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.371100000000009</v>
+        <v>8.308400000000011</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
